--- a/06-23-24 to 06-29-24 Milwaukee Schedule Copy.xlsx
+++ b/06-23-24 to 06-29-24 Milwaukee Schedule Copy.xlsx
@@ -944,7 +944,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SMALL CHANGES-RESET</t>
+          <t>SMALL CHANGES-REMAPPED</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1054,13 +1054,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Trevor)</t>
+          <t>Until 12:00</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -1140,10 +1139,15 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Trevor)</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1152,32 +1156,31 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Until 12:00</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
           <t>Carlie</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>@ Store
 (w/ Trevor)</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Trevor)</t>
-        </is>
-      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1186,10 +1189,14 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Unitl 11:30</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1222,7 +1229,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1234,10 +1241,15 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Trevor)</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1246,7 +1258,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -1301,7 +1313,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1313,10 +1325,15 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1372,27 +1389,14 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Carlie)</t>
-        </is>
-      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1448,7 +1452,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1517,7 +1521,11 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
@@ -1575,7 +1583,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>5:00 AM MEET OFFICE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1627,7 +1635,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1675,7 +1683,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S BP, IRON RIDGE</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1727,7 +1735,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, IRON RIDGE</t>
+          <t>210 W PLEASANT ST</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1782,7 +1790,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>210 W PLEASANT ST</t>
+          <t>https://goo.gl/maps/qwc1LRfmy572</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1835,11 +1843,7 @@
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/qwc1LRfmy572</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -1889,9 +1893,21 @@
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
@@ -1942,19 +1958,15 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -2001,15 +2013,20 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
@@ -2062,24 +2079,24 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Driver,
-Tan Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -2090,13 +2107,12 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Sante Fe,
-Until 11:30</t>
+          <t>Sante Fe</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2136,21 +2152,9 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2251,12 +2255,29 @@
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>@ Store,
+2nd week (work w/ Michael)</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>5:15 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2297,7 +2318,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>5:15 AM MEET OFFICE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2340,7 +2361,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2379,7 +2400,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S BP, ASHIPPUN</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2435,7 +2456,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, ASHIPPUN</t>
+          <t>N649 STATE RD 67</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2486,7 +2507,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>N649 STATE RD 67</t>
+          <t>https://goo.gl/maps/ma91pJMETDK2</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2527,11 +2548,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ma91pJMETDK2</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2569,9 +2586,22 @@
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -2614,20 +2644,15 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2642,8 +2667,7 @@
       <c r="W43" t="inlineStr">
         <is>
           <t>Driver,
-Tan Camry,
-Equip</t>
+Gold Camry, Equip</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2684,12 +2708,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2743,12 +2767,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2760,7 +2784,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2796,16 +2820,8 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
@@ -2891,7 +2907,11 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET AT OFFICE</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -2932,7 +2952,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>5:00 AM MEET AT OFFICE</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -2975,7 +2995,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3016,7 +3036,7 @@
       <c r="K51" t="inlineStr">
         <is>
           <t>Driver,
-Tan Camry, Equip</t>
+Gold Camry, Equip</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3027,7 +3047,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3079,14 +3099,14 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>White Camry available, Equip</t>
+          <t>Optima available, Equip</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3133,7 +3153,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3172,7 +3192,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3211,7 +3231,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3228,7 +3248,7 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>White Camry available, Equip</t>
+          <t>Optima available, Equip</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3266,7 +3286,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3317,7 +3337,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3368,7 +3388,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3409,11 +3429,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3455,9 +3471,21 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3483,7 +3511,7 @@
       <c r="G61" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+Optima</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -3501,17 +3529,18 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
@@ -3546,22 +3575,9 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
@@ -3634,7 +3650,11 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>4:30 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -3675,7 +3695,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>4:30 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3718,7 +3738,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3761,7 +3781,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>WILLY STREET COOP, MIDDLETON</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -3804,7 +3824,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>WILLY STREET COOP, MIDDLETON</t>
+          <t>6825 UNIVERSITY AVE</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -3847,7 +3867,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>6825 UNIVERSITY AVE</t>
+          <t>https://goo.gl/maps/in4JiZtePA62</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -3888,11 +3908,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/in4JiZtePA62</t>
-        </is>
-      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -3930,9 +3946,21 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
@@ -3971,19 +3999,15 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
@@ -4018,12 +4042,12 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4074,12 +4098,12 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4117,15 +4141,20 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
@@ -4167,7 +4196,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>White Camry available, Equip</t>
+          <t>Optima available, Equip</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
@@ -4177,18 +4206,17 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
@@ -4233,12 +4261,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Jeri</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -4280,12 +4308,12 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Jeri</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -4319,12 +4347,12 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -4362,12 +4390,12 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -4403,21 +4431,9 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
@@ -4594,7 +4610,7 @@
       <c r="G87" t="inlineStr">
         <is>
           <t>Driver,
-Tan Camry, Equip</t>
+Gold Camry, Equip</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>

--- a/06-23-24 to 06-29-24 Milwaukee Schedule Copy.xlsx
+++ b/06-23-24 to 06-29-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y90"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,24 +540,64 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 7,8</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 10</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1,2</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,24 +611,56 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bags 7,8</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 11</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -602,24 +674,56 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bags 3,4</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 10</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -628,13 +732,17 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -664,43 +772,23 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -710,10 +798,14 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -721,7 +813,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -729,7 +821,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -737,7 +829,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -745,7 +837,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -760,7 +852,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -768,7 +860,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>PICK #868, MILWAUKEE-EAST POINTE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -776,7 +868,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>PICK #348 +RX, OAK CREEK - 27TH ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -784,7 +876,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -792,7 +884,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>GOOD HARVEST MARKET, PEWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -807,7 +899,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #355, RACINE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -815,7 +907,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>605 EAST LYON STREET</t>
+          <t>PICK #868, MILWAUKEE-EAST POINTE</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -823,7 +915,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>6462 S 27TH ST</t>
+          <t>PICK #348 +RX, OAK CREEK - 27TH ST</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -831,7 +923,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION IXONIA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -839,7 +931,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2205 SILVERNAIL RD</t>
+          <t>GOOD HARVEST MARKET, PEWAUKEE</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -854,7 +946,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3900 ERIE ST</t>
+          <t>PIGGLY WIGGLY #355, RACINE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -862,7 +954,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/J6rrPvkbxWp</t>
+          <t>605 EAST LYON STREET</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -870,7 +962,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Ya5hSzVYqX42</t>
+          <t>6462 S 27TH ST</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -878,7 +970,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>W1168 AMERICAN ST HWY 16</t>
+          <t>DHILLON'S STATION IXONIA</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -886,7 +978,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dbog9UtxNWp</t>
+          <t>2205 SILVERNAIL RD</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -901,7 +993,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pSDNmBRxXrQ2</t>
+          <t>3900 ERIE ST</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -909,7 +1001,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>5:30 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>https://goo.gl/maps/J6rrPvkbxWp</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -917,7 +1009,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>SET UP ON REG FAR RIGHT BY OFFICE</t>
+          <t>https://goo.gl/maps/Ya5hSzVYqX42</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -925,13 +1017,17 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
+          <t>W1168 AMERICAN ST HWY 16</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dbog9UtxNWp</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
@@ -944,19 +1040,23 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SMALL CHANGES-REMAPPED</t>
+          <t>https://goo.gl/maps/pSDNmBRxXrQ2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>5:30 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>5:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>SET UP ON REG FAR RIGHT BY OFFICE</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -964,26 +1064,14 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>4:45 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
     </row>
@@ -995,46 +1083,46 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4:45 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>SMALL CHANGES-REMAPPED</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>5:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>4:45 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1044,66 +1132,45 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4:45 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Until 12:00</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1115,88 +1182,70 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van, Equip</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Trevor)</t>
+          <t>Until 12:00</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Until 12:00</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Trevor)</t>
+          <t>Driver,
+Altima, Equip</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Unitl 11:30</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1207,73 +1256,86 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>Carlie</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>@ Store
 (w/ Trevor)</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Until 12:00</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>Carlie</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>@ Store
 (w/ Trevor)</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Unitl 11:30</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1284,72 +1346,74 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Trevor)</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Trevor)
+Trainer</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1360,52 +1424,69 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Joshua M</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2nd week</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -1423,36 +1504,36 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1463,12 +1544,12 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -1486,46 +1567,47 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Joshua M</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2nd week,
+(work w/ Anisha)</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
@@ -1541,49 +1623,52 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Carlie)</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1601,33 +1686,36 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1635,7 +1723,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1655,35 +1743,56 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, IRON RIDGE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1707,35 +1816,38 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>6:30 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2nd week</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>210 W PLEASANT ST</t>
+          <t>DHILLON'S BP, IRON RIDGE</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1756,41 +1868,34 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store
+(w/ Carlie)</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qwc1LRfmy572</t>
+          <t>210 W PLEASANT ST</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1813,37 +1918,38 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>2nd week,
+(work w/ Mai)</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/qwc1LRfmy572</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -1864,7 +1970,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1872,42 +1978,31 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>MILLGATE GENERAL STORE, BURLINGTON</t>
+          <t>6:30 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
@@ -1927,7 +2022,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1935,38 +2030,43 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>151 MILLGATE DR</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -1982,7 +2082,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1990,19 +2090,19 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JmyTfGd26bD2FKyR8</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2013,20 +2113,15 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
@@ -2054,7 +2149,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2062,41 +2157,41 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>EXPORT NEEDS TO BE LEFT ON COMPUTER AT STORE</t>
+          <t>MILLGATE GENERAL STORE, BURLINGTON</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Gold Camry</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -2126,35 +2221,50 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>151 MILLGATE DR</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2182,41 +2292,33 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/JmyTfGd26bD2FKyR8</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd week (work w/ Michael)</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
@@ -2238,46 +2340,37 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>EXPORT NEEDS TO BE LEFT ON COMPUTER AT STORE</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>20)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd week (work w/ Michael)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2294,31 +2387,36 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2341,27 +2439,49 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:30 AM START </t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2382,25 +2502,45 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>22)</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, ASHIPPUN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2420,43 +2560,43 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>6:30 AM MEET OFFICE</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>23)</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store,
+2nd Day (work w/ Carlie)</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>N649 STATE RD 67</t>
+          <t>DHILLON'S BP, ASHIPPUN</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2478,36 +2618,33 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>1060 N ROCHESTER ST</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ma91pJMETDK2</t>
+          <t>N649 STATE RD 67</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2527,28 +2664,32 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ma91pJMETDK2</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2573,7 +2714,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>6:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2581,27 +2722,14 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t xml:space="preserve">5:30 AM START </t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -2614,22 +2742,14 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2644,15 +2764,20 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2685,7 +2810,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2693,7 +2818,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2701,19 +2826,19 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2741,10 +2866,14 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2752,7 +2881,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">APPROX 10:30/11:30 AM </t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2760,19 +2889,19 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2799,7 +2928,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2807,7 +2936,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2815,13 +2944,21 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
@@ -2846,7 +2983,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2854,7 +2991,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>CONDON OIL #195, THERESA</t>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2885,7 +3022,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jNgJR8hii6jJGZQP7</t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2893,7 +3030,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>213 N MILWAUKEE</t>
+          <t xml:space="preserve">APPROX 10:30/11:30 AM </t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2901,17 +3038,13 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET AT OFFICE</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -2928,7 +3061,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/jNgJR8hii6jJGZQP7</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2936,7 +3069,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -2944,7 +3077,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -2952,7 +3085,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM MEET AT OFFICE</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -2975,19 +3108,23 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>CONDON OIL #195, THERESA</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -2995,7 +3132,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3018,36 +3155,31 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry, Equip</t>
-        </is>
-      </c>
+          <t>213 N MILWAUKEE</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3070,43 +3202,31 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3129,7 +3249,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3138,14 +3258,10 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3153,7 +3269,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3176,23 +3292,40 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry, Equip</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>122 ARROWHEAD DR</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3211,27 +3344,35 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>5:30 AM START</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3262,31 +3403,23 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3313,31 +3446,35 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3364,7 +3501,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3372,15 +3509,19 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3388,7 +3529,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3400,10 +3541,14 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3413,13 +3558,17 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3429,7 +3578,11 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3443,26 +3596,14 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3471,21 +3612,9 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3500,47 +3629,49 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
@@ -3559,25 +3690,55 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
@@ -3601,13 +3762,17 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3630,17 +3795,13 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3650,11 +3811,7 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -3675,7 +3832,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3683,7 +3840,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3695,7 +3852,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3718,7 +3875,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3726,7 +3883,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3738,7 +3895,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3761,7 +3918,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3769,7 +3926,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3781,7 +3938,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>WILLY STREET COOP, MIDDLETON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -3804,7 +3961,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>141 MAIN ST</t>
+          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -3812,7 +3969,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -3824,7 +3981,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>6825 UNIVERSITY AVE</t>
+          <t>WILLY STREET COOP, MIDDLETON</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -3847,7 +4004,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+          <t>141 MAIN ST</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -3855,7 +4012,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3867,7 +4024,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/in4JiZtePA62</t>
+          <t>6825 UNIVERSITY AVE</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -3890,7 +4047,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>APPROX 9:30/10:30 AM START</t>
+          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -3898,7 +4055,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3908,7 +4065,11 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/in4JiZtePA62</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -3929,7 +4090,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>APPROX 9:30/10:30 AM START</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -3937,7 +4098,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3946,21 +4107,9 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
@@ -3980,7 +4129,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>RON'S MARKET, HELENVILLE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -3988,7 +4137,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -3999,15 +4148,19 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
@@ -4023,7 +4176,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>W3094 HWY 18</t>
+          <t>RON'S MARKET, HELENVILLE</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -4031,7 +4184,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4042,12 +4195,12 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4079,7 +4232,7 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pyYX7wkpwom</t>
+          <t>W3094 HWY 18</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -4087,7 +4240,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4098,12 +4251,12 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4128,11 +4281,19 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/pyYX7wkpwom</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ROTE OIL #09 GREENFIELD</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -4141,20 +4302,15 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
@@ -4167,38 +4323,17 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>12345 W LAYTON AVE</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -4206,17 +4341,18 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
@@ -4233,24 +4369,25 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4261,12 +4398,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Jeri</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -4286,20 +4423,20 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -4308,7 +4445,7 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -4337,9 +4474,21 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
@@ -4347,7 +4496,7 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -4373,15 +4522,19 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Casey</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
@@ -4390,7 +4543,7 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -4418,13 +4571,21 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -4449,7 +4610,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -4480,7 +4641,7 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, FOND DU LAC-PROSPECT</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -4511,7 +4672,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>330 PROSPECT AVE</t>
+          <t>DHILLON'S BP, FOND DU LAC-PROSPECT</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -4542,7 +4703,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpFifzkM3ePQqS786</t>
+          <t>330 PROSPECT AVE</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -4571,7 +4732,11 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/fpFifzkM3ePQqS786</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -4597,22 +4762,9 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry, Equip</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -4639,15 +4791,20 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry, Equip</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4674,12 +4831,12 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -4709,12 +4866,12 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -4737,6 +4894,41 @@
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/06-23-24 to 06-29-24 Milwaukee Schedule Copy.xlsx
+++ b/06-23-24 to 06-29-24 Milwaukee Schedule Copy.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Bags 1-3</t>
+          <t>Bags 1-2</t>
         </is>
       </c>
       <c r="X4" t="inlineStr"/>
@@ -757,8 +757,16 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Bag 3</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
     </row>
@@ -1596,15 +1604,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Joshua M</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>2nd week,
-(work w/ Anisha)</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -1656,12 +1659,13 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>2nd week,
+(work w/ Anisha)</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1715,10 +1719,14 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -1784,7 +1792,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1839,7 +1847,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1882,15 +1890,10 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -1934,13 +1937,13 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2nd week,
-(work w/ Mai)</t>
+          <t>@ Store
+(w/ Carlie)</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -1990,13 +1993,13 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>2nd week,
+(work w/ Mai)</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2042,13 +2045,13 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+Rx</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2102,12 +2105,13 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2121,7 +2125,12 @@
           <t>Casey</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
@@ -2185,13 +2194,12 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Driver,
-Gold Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -2250,21 +2258,9 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2370,7 +2366,11 @@
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>5:15 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2416,7 +2416,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>5:15 AM MEET OFFICE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2540,7 +2540,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S BP, ASHIPPUN</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, ASHIPPUN</t>
+          <t>N649 STATE RD 67</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>N649 STATE RD 67</t>
+          <t>https://goo.gl/maps/ma91pJMETDK2</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2685,11 +2685,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ma91pJMETDK2</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2727,9 +2723,22 @@
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -2764,20 +2773,15 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2833,12 +2837,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2896,12 +2900,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2949,16 +2953,8 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
@@ -3044,7 +3040,11 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET AT OFFICE</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3085,7 +3085,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>5:00 AM MEET AT OFFICE</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3132,7 +3132,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3179,7 +3179,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3226,7 +3226,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3269,7 +3269,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3419,7 +3419,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3521,15 +3521,19 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3578,11 +3582,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3612,9 +3612,21 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3661,17 +3673,18 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
@@ -3723,22 +3736,9 @@
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
@@ -3811,7 +3811,11 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>4:30 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -3852,7 +3856,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>4:30 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3895,7 +3899,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3938,7 +3942,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>WILLY STREET COOP, MIDDLETON</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -3981,7 +3985,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>WILLY STREET COOP, MIDDLETON</t>
+          <t>6825 UNIVERSITY AVE</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -4024,7 +4028,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>6825 UNIVERSITY AVE</t>
+          <t>https://goo.gl/maps/in4JiZtePA62</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -4065,11 +4069,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/in4JiZtePA62</t>
-        </is>
-      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -4107,9 +4107,21 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
@@ -4148,19 +4160,15 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
@@ -4195,12 +4203,12 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4251,12 +4259,12 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4302,15 +4310,20 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
@@ -4341,18 +4354,17 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
@@ -4398,12 +4410,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -4445,12 +4457,12 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -4496,12 +4508,12 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -4541,21 +4553,9 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
